--- a/medicine/Œil et vue/Marc_Dufour_(médecin)/Marc_Dufour_(médecin).xlsx
+++ b/medicine/Œil et vue/Marc_Dufour_(médecin)/Marc_Dufour_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marc_Dufour_(m%C3%A9decin)</t>
+          <t>Marc_Dufour_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc Dufour, né le 21 avril 1843 à Villeneuve et mort le 29 juillet 1910 à Lausanne est un enseignant et médecin ophtalmologue vaudois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marc_Dufour_(m%C3%A9decin)</t>
+          <t>Marc_Dufour_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et école
-Marc Dufour est le fils de Jean-Pierre Dufour, enseignant, originaire du Châtelard, et d'Anne-Charlotte Champel. Il suit ses classes primaires à Villeneuve, où il est né. Il entre ensuite à l'École cantonale de Berthoud puis fréquente l'École moyenne de Morges. Il entre en 1859 au gymnase et reçoit en 1861 le certificat d'études en mathématiques et physique.
+          <t>Enfance et école</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Dufour est le fils de Jean-Pierre Dufour, enseignant, originaire du Châtelard, et d'Anne-Charlotte Champel. Il suit ses classes primaires à Villeneuve, où il est né. Il entre ensuite à l'École cantonale de Berthoud puis fréquente l'École moyenne de Morges. Il entre en 1859 au gymnase et reçoit en 1861 le certificat d'études en mathématiques et physique.
 Il a deux frères aînés : Charles (1827-1902), professeur d'astronomie à l'Académie et Louis (1832-1892), professeur de physique à l'Académie.
-Études de médecine et formation en ophtalmologie
-Marc Dufour entre en médecine à l'Université de Berne en automne 1861. Il y passe quatre semestres avant de continuer ses études à Wurtzbourg (Allemagne) et à Prague. Il suit ensuite un cours d'ophtalmologie à Paris durant l'hiver 1864-1865. Il rentre en Suisse au printemps 1865 et consacre l'été à rédiger une thèse sur la constante de la force et les mouvements musculaires. Il la soutient à Zurich, où il s'engage en ophtalmologie auprès de Johann Friedrich Horner. Il rejoint ensuite Albrecht von Graefe à Berlin. Après un bref séjour à Paris en 1866, il va à Lausanne en 1867, où il reçoit son droit de pratique dans le canton de Vaud, puis repart effectuer de nouveaux stages à Paris (1867), Zurich (1868) et Berlin.
-Carrière d'ophtalmologue
-Le 28 mai 1869, il est nommé médecin-adjoint à l'Asile des aveugles de Lausanne, sous les ordres de Frédéric Recordon. Marc Dufour habite alors à Lausanne, à l'angle des rues du Grand-Chêne et du Petit-Chêne, où il installe son cabinet et reprend la patientèle du Dr Recordon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marc_Dufour_(médecin)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Dufour_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études de médecine et formation en ophtalmologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Dufour entre en médecine à l'Université de Berne en automne 1861. Il y passe quatre semestres avant de continuer ses études à Wurtzbourg (Allemagne) et à Prague. Il suit ensuite un cours d'ophtalmologie à Paris durant l'hiver 1864-1865. Il rentre en Suisse au printemps 1865 et consacre l'été à rédiger une thèse sur la constante de la force et les mouvements musculaires. Il la soutient à Zurich, où il s'engage en ophtalmologie auprès de Johann Friedrich Horner. Il rejoint ensuite Albrecht von Graefe à Berlin. Après un bref séjour à Paris en 1866, il va à Lausanne en 1867, où il reçoit son droit de pratique dans le canton de Vaud, puis repart effectuer de nouveaux stages à Paris (1867), Zurich (1868) et Berlin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marc_Dufour_(médecin)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Dufour_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière d'ophtalmologue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 28 mai 1869, il est nommé médecin-adjoint à l'Asile des aveugles de Lausanne, sous les ordres de Frédéric Recordon. Marc Dufour habite alors à Lausanne, à l'angle des rues du Grand-Chêne et du Petit-Chêne, où il installe son cabinet et reprend la patientèle du Dr Recordon.
 Il insiste sur les inconvénients qui découlent de l'exiguïté des locaux de l’Hôpital ophtalmique mis à la disposition des patients au rez-de-chaussée du bâtiment. Après de nombreuses études, un nouveau bâtiment est édifié entre 1871 et 1873, ce qui permet de porter à quarante le nombre de lits des malades de l'Hôpital, tout en libérant un espace bienvenu en faveur des jeunes aveugles de l'Institut. Il remplace peu à peu le Dr Recordon et jouit d'une notoriété croissante qui dépasse les frontières suisses. Il est très actif à la Société Vaudoise de Médecine et y fait de nombreuses communications dès 1869. Il publie avec le Dr Jules Gonin deux volumes sur les maladies de la rétine et du nerf optique.
 En 1870, avec le Dr Jacques Larguier des Bancels, il est médecin à la 5e ambulance internationale, dirigée par le Dr Louis-Philippe Rouge et attachée à l'armée du maréchal Mac Mahon.
 En 1871, ayant appris par télégramme l'état de santé alarmant de son ami Gabriel de Rumine, il part pour Bucarest et assiste à ses derniers instants.
@@ -531,71 +618,145 @@
 En 1880, il participe avec d'autres médecins à des expériences avec le magnétiseur public belge Alfred D'Hont, alias Donato.
 Membre de la société française d'ophtalmologie, il préside à Lucerne en 1904 le dixième congrès international d'ophtalmologie. Il fait partie de la Société suisse de sciences et collabore pendant plus de trente ans au Bulletin de la Société médicale de la Suisse romande (devenu en 1881 Revue médicale de la Suisse romande). Il est également membre de la Société de géographie de Neuchâtel, Genève et Paris.
 Le Prix Marc Dufour, qu'il crée en 1910, est destiné à encourager la recherche médicale universitaire. Il existe toujours au XXIe siècle.
-Honneurs et décorations
-Tout comme César Roux, il est nommé bourgeois d'honneur de la ville de Lausanne le 7 avril 1903, à l'occasion des fêtes marquant le centenaire de l'entrée du canton de Vaud dans la Confédération suisse. Fait chevalier de la Légion d'honneur en 1885, puis officier de la Légion d'honneur en 1908 pour les soins donnés à d'innombrables Français, décoré de l'Ordre du souverain de Grèce, Marc Dufour est en outre docteur honoris causa de l'Université de Genève.
-Fin de vie
-Le 29 juillet 1910 vers 23 heures, en pleine consultation à la Clinique Carey, il meurt d'un accident vasculaire cérébral. Après d'imposantes funérailles à l'église St-François, il est enseveli au cimetière de Montoie. La ville de Lausanne décide d'accorder à la famille une concession perpétuelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marc_Dufour_(médecin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Dufour_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Honneurs et décorations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme César Roux, il est nommé bourgeois d'honneur de la ville de Lausanne le 7 avril 1903, à l'occasion des fêtes marquant le centenaire de l'entrée du canton de Vaud dans la Confédération suisse. Fait chevalier de la Légion d'honneur en 1885, puis officier de la Légion d'honneur en 1908 pour les soins donnés à d'innombrables Français, décoré de l'Ordre du souverain de Grèce, Marc Dufour est en outre docteur honoris causa de l'Université de Genève.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marc_Dufour_(médecin)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Dufour_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fin de vie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 juillet 1910 vers 23 heures, en pleine consultation à la Clinique Carey, il meurt d'un accident vasculaire cérébral. Après d'imposantes funérailles à l'église St-François, il est enseveli au cimetière de Montoie. La ville de Lausanne décide d'accorder à la famille une concession perpétuelle.
 Le neveu de Marc Dufour, le Dr Auguste Dufour, privat-docent, médecin adjoint à l'Hôpital ophtalmique depuis 1892, succéda à son oncle en 1910 comme médecin-chef.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Marc_Dufour_(m%C3%A9decin)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marc_Dufour_(médecin)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Œil et vue/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marc_Dufour_(m%C3%A9decin)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe une avenue Dr-Marc-Dufour à Lausanne, allant de l'avenue Louis-Ruchonnet à l'avenue du Mont-d'Or. Selon la décision municipale de 1930, l'avenue allait jusqu'à l'avenue du Belvédère. la partie inférieure a été ajoutée en 1943. Le pont traversant les voies CFF a alors pris le nom de pont Dr-Marc-Dufour.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marc_Dufour_(m%C3%A9decin)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marc_Dufour_(médecin)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Œil et vue/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marc_Dufour_(m%C3%A9decin)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Site de la Fondation Asile des aveugles et de l'Hôpital ophtalmique Jules-Gonin
 Fonds : Dufour (famille et familles alliées) (1843-1943) [40 enveloppes].  Cote : P Dufour (Pierre). Archives cantonales vaudoises (présentation en ligne).
